--- a/Real Estate/WillScot Mobile Mini Holdings.xlsx
+++ b/Real Estate/WillScot Mobile Mini Holdings.xlsx
@@ -1,36 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Real Estate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{CEDDC1F4-B31F-1D49-8376-934DE1488926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9F39A3-8EF3-7146-A640-469D6B31786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$I$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$I$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$I$106</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$B$106:$I$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$B$19:$I$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$B$3:$I$3</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -978,18 +963,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1024,12 +997,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1047,6 +1014,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2282,9 +2267,11 @@
     <v>Powered by Refinitiv</v>
     <v>53.46</v>
     <v>30.52</v>
-    <v>1.5321</v>
-    <v>-0.42</v>
-    <v>-1.0314E-2</v>
+    <v>1.5286</v>
+    <v>-0.55000000000000004</v>
+    <v>-1.2024E-2</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.549E-3</v>
     <v>USD</v>
     <v>WillScot Mobile Mini Holdings Corp. is a holding company. The Company is a business services provider specializing in the flexible workspace and portable storage solutions. The Company’s segments include Modular and Storage. The Modular segment represents the activities of the North American modular business. Storage represents the activities of the North American portable storage business. It leases modular space and portable storage units (its lease fleet) to customers in the construction, commercial and industrial, retail and wholesale trade, energy and natural resources, education, government and institutions, healthcare, and other end markets. It offers its customers ready-to-work solutions with products and services, such as the rental of steps, ramps, furniture packages, damage waivers, and other amenities. It serves diverse end markets across all sectors from a network of over 240 branch locations and additional drop lots throughout the United States, Canada, and Mexico.</v>
     <v>4500</v>
@@ -2292,24 +2279,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>4646 E. Van Buren Street, Suite 400, PHOENIX, AZ, 85008 US</v>
-    <v>40.909999999999997</v>
+    <v>46.3</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45022.941163274998</v>
+    <v>45065.87066179375</v>
     <v>0</v>
-    <v>40.08</v>
-    <v>8293174000</v>
+    <v>44.98</v>
+    <v>9142750000</v>
     <v>WILLSCOT MOBILE MINI HOLDINGS CORP.</v>
     <v>WILLSCOT MOBILE MINI HOLDINGS CORP.</v>
-    <v>40.75</v>
-    <v>31.1053</v>
-    <v>40.72</v>
-    <v>40.299999999999997</v>
-    <v>205786000</v>
+    <v>46.24</v>
+    <v>31.472000000000001</v>
+    <v>45.74</v>
+    <v>45.19</v>
+    <v>45.26</v>
+    <v>202318000</v>
     <v>WSC</v>
     <v>WILLSCOT MOBILE MINI HOLDINGS CORP. (XNAS:WSC)</v>
-    <v>2312827</v>
-    <v>2620617</v>
+    <v>1131281</v>
+    <v>2233350</v>
     <v>2017</v>
   </rv>
   <rv s="2">
@@ -2341,6 +2329,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2361,6 +2351,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2377,7 +2368,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2388,13 +2379,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2460,13 +2454,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2511,6 +2511,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2518,6 +2521,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2879,10 +2885,10 @@
   <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J130" sqref="J130"/>
+      <selection pane="bottomRight" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3054,7 +3060,7 @@
         <v>0.68499939454009717</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:Q4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:N4" si="0">(F3/E3)-1</f>
         <v>0.4155549818208919</v>
       </c>
       <c r="G4" s="15">
@@ -3259,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="15" t="e">
-        <f t="shared" ref="C9:L9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:I9" si="1">C8/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15">
@@ -3423,7 +3429,7 @@
         <v>0.3073996051485105</v>
       </c>
       <c r="C13" s="15" t="e">
-        <f t="shared" ref="C13:L13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:I13" si="2">C12/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="15">
@@ -3571,15 +3577,15 @@
       </c>
       <c r="P16" s="30">
         <f>Q101/I3</f>
-        <v>3.8705707910351004</v>
+        <v>4.2670829165933535</v>
       </c>
       <c r="Q16" s="30">
         <f>Q101/I28</f>
-        <v>24.424733462920422</v>
+        <v>26.926871649879249</v>
       </c>
       <c r="R16" s="31">
         <f>Q101/I106</f>
-        <v>11.830591987948541</v>
+        <v>13.042551006142705</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3694,7 +3700,7 @@
         <v>0.5164107656659791</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:L20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:I20" si="3">(F19/E19)-1</f>
         <v>1.5071951506196055</v>
       </c>
       <c r="G20" s="15">
@@ -3960,7 +3966,7 @@
         <v>-0.6679801221378181</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:L29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:I29" si="4">(F28/E28)-1</f>
         <v>-0.77320554649265905</v>
       </c>
       <c r="G29" s="15">
@@ -4131,7 +4137,7 @@
         <v>0.25</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:L35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:I35" si="5">(D34-C34)/C34</f>
         <v>-0.68383697600000004</v>
       </c>
       <c r="E35" s="22">
@@ -5436,7 +5442,7 @@
         <v>106</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:L80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:I80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -5554,10 +5560,10 @@
       <c r="I83" s="1">
         <v>-12345000</v>
       </c>
-      <c r="P83" s="33" t="s">
+      <c r="P83" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="Q83" s="34"/>
+      <c r="Q83" s="60"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5587,10 +5593,10 @@
       <c r="I84" s="1">
         <v>9443000</v>
       </c>
-      <c r="P84" s="35" t="s">
+      <c r="P84" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="Q84" s="36"/>
+      <c r="Q84" s="62"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5728,10 +5734,10 @@
       <c r="I88" s="1">
         <v>-43664000</v>
       </c>
-      <c r="P88" s="37" t="s">
+      <c r="P88" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="Q88" s="38">
+      <c r="Q88" s="34">
         <f>Q85/(Q86+Q87)</f>
         <v>4.4373958549156781E-2</v>
       </c>
@@ -5741,7 +5747,7 @@
         <v>107</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:L89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:I89" si="7">(-1*B88)/B3</f>
         <v>0.40681615141120803</v>
       </c>
       <c r="C89" s="15" t="e">
@@ -5844,10 +5850,10 @@
       <c r="I91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P91" s="37" t="s">
+      <c r="P91" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="Q91" s="38">
+      <c r="Q91" s="34">
         <f>Q89/Q90</f>
         <v>0.24332427903308837</v>
       </c>
@@ -5880,10 +5886,10 @@
       <c r="I92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P92" s="39" t="s">
+      <c r="P92" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="Q92" s="40">
+      <c r="Q92" s="36">
         <f>Q88*(1-Q91)</f>
         <v>3.3576697077339054E-2</v>
       </c>
@@ -5916,10 +5922,10 @@
       <c r="I93" s="1">
         <v>-45049000</v>
       </c>
-      <c r="P93" s="35" t="s">
+      <c r="P93" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="Q93" s="36"/>
+      <c r="Q93" s="62"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5952,7 +5958,7 @@
       <c r="P94" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="Q94" s="41">
+      <c r="Q94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -5987,9 +5993,9 @@
       <c r="P95" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="Q95" s="42" cm="1">
+      <c r="Q95" s="38" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.5321</v>
+        <v>1.5286</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6023,7 +6029,7 @@
       <c r="P96" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="Q96" s="41">
+      <c r="Q96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6055,12 +6061,12 @@
       <c r="I97" s="1">
         <v>-751795000</v>
       </c>
-      <c r="P97" s="39" t="s">
+      <c r="P97" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="Q97" s="40">
+      <c r="Q97" s="36">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.10690690500000001</v>
+        <v>0.10675623000000001</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6091,10 +6097,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="35" t="s">
+      <c r="P98" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="Q98" s="36"/>
+      <c r="Q98" s="62"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6160,12 +6166,12 @@
       <c r="I100" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="P100" s="37" t="s">
+      <c r="P100" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="Q100" s="38">
+      <c r="Q100" s="34">
         <f>Q99/Q103</f>
-        <v>0.28443318037798704</v>
+        <v>0.26500693410920112</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6199,9 +6205,9 @@
       <c r="P101" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="Q101" s="43" cm="1">
+      <c r="Q101" s="39" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>8293174000</v>
+        <v>9142750000</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6232,12 +6238,12 @@
       <c r="I102" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="P102" s="37" t="s">
+      <c r="P102" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="Q102" s="38">
+      <c r="Q102" s="34">
         <f>Q101/Q103</f>
-        <v>0.71556681962201296</v>
+        <v>0.73499306589079894</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6268,12 +6274,12 @@
       <c r="I103" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P103" s="39" t="s">
+      <c r="P103" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="Q103" s="44">
+      <c r="Q103" s="40">
         <f>Q99+Q101</f>
-        <v>11589657000</v>
+        <v>12439233000</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6304,10 +6310,10 @@
       <c r="I104" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="P104" s="35" t="s">
+      <c r="P104" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="Q104" s="36"/>
+      <c r="Q104" s="62"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6335,7 +6341,7 @@
         <v>-3.8369618395303329</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:L105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:I105" si="8">(H106/G106)-1</f>
         <v>3.4296356973485667</v>
       </c>
       <c r="I105" s="15">
@@ -6353,7 +6359,7 @@
       </c>
       <c r="Q105" s="26">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>8.6049360742778497E-2</v>
+        <v>8.7363146340622283E-2</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6384,33 +6390,33 @@
       <c r="I106" s="1">
         <v>700994000</v>
       </c>
-      <c r="J106" s="45">
+      <c r="J106" s="41">
         <f>I106*(1+$Q$106)</f>
         <v>752597631.33408833</v>
       </c>
-      <c r="K106" s="45">
+      <c r="K106" s="41">
         <f t="shared" ref="K106:N106" si="9">J106*(1+$Q$106)</f>
         <v>808000060.89878142</v>
       </c>
-      <c r="L106" s="45">
+      <c r="L106" s="41">
         <f t="shared" si="9"/>
         <v>867480936.99835098</v>
       </c>
-      <c r="M106" s="45">
+      <c r="M106" s="41">
         <f t="shared" si="9"/>
         <v>931340494.23024237</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N106" s="41">
         <f t="shared" si="9"/>
         <v>999901068.94381356</v>
       </c>
-      <c r="O106" s="46" t="s">
+      <c r="O106" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="P106" s="47" t="s">
+      <c r="P106" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="Q106" s="48">
+      <c r="Q106" s="44">
         <f>(SUM(J4:N4)/5)</f>
         <v>7.3614940119442321E-2</v>
       </c>
@@ -6425,151 +6431,151 @@
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
-      <c r="J107" s="46"/>
-      <c r="K107" s="46"/>
-      <c r="L107" s="46"/>
-      <c r="M107" s="46"/>
-      <c r="N107" s="49">
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="45">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>16788031573.101175</v>
-      </c>
-      <c r="O107" s="50" t="s">
+        <v>16434363174.518145</v>
+      </c>
+      <c r="O107" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="P107" s="51" t="s">
+      <c r="P107" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="Q107" s="52">
+      <c r="Q107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J108" s="49">
+      <c r="J108" s="45">
         <f t="shared" ref="J108:L108" si="10">J107+J106</f>
         <v>752597631.33408833</v>
       </c>
-      <c r="K108" s="49">
+      <c r="K108" s="45">
         <f t="shared" si="10"/>
         <v>808000060.89878142</v>
       </c>
-      <c r="L108" s="49">
+      <c r="L108" s="45">
         <f t="shared" si="10"/>
         <v>867480936.99835098</v>
       </c>
-      <c r="M108" s="49">
+      <c r="M108" s="45">
         <f>M107+M106</f>
         <v>931340494.23024237</v>
       </c>
-      <c r="N108" s="49">
+      <c r="N108" s="45">
         <f>N107+N106</f>
-        <v>17787932642.044991</v>
-      </c>
-      <c r="O108" s="50" t="s">
+        <v>17434264243.46196</v>
+      </c>
+      <c r="O108" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="P108" s="53" t="s">
+      <c r="P108" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="Q108" s="54">
+      <c r="Q108" s="50">
         <f>Q105</f>
-        <v>8.6049360742778497E-2</v>
+        <v>8.7363146340622283E-2</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="55" t="s">
+      <c r="J109" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="K109" s="56"/>
+      <c r="K109" s="64"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J110" s="57" t="s">
+      <c r="J110" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="K110" s="43">
+      <c r="K110" s="39">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>14497374048.987019</v>
+        <v>14185591206.040913</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J111" s="57" t="s">
+      <c r="J111" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="K111" s="43">
+      <c r="K111" s="39">
         <f>I40</f>
         <v>7390000</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J112" s="57" t="s">
+      <c r="J112" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="K112" s="43">
+      <c r="K112" s="39">
         <f>Q99</f>
         <v>3296483000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J113" s="57" t="s">
+      <c r="J113" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="K113" s="43">
+      <c r="K113" s="39">
         <f>K110+K111-K112</f>
-        <v>11208281048.987019</v>
+        <v>10896498206.040913</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J114" s="57" t="s">
+      <c r="J114" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="K114" s="58" cm="1">
+      <c r="K114" s="52" cm="1">
         <f t="array" ref="K114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>205786000</v>
+        <v>202318000</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="59" t="s">
+      <c r="J115" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="K115" s="60">
+      <c r="K115" s="54">
         <f>K113/K114</f>
-        <v>54.465712191242446</v>
+        <v>53.85827363873166</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="57" t="s">
+      <c r="J116" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="K116" s="61" cm="1">
+      <c r="K116" s="55" cm="1">
         <f t="array" ref="K116">_FV(A1,"Price")</f>
-        <v>40.299999999999997</v>
+        <v>45.19</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="62" t="s">
+      <c r="J117" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="K117" s="63">
+      <c r="K117" s="57">
         <f>K115/K116-1</f>
-        <v>0.35150650598616506</v>
+        <v>0.19181840315847887</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="62" t="s">
+      <c r="J118" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="K118" s="64" t="str">
+      <c r="K118" s="58" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J109:K109"/>
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="P93:Q93"/>
     <mergeCell ref="P98:Q98"/>
     <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="J109:K109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/WSC" display="ROIC.AI | WSC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
